--- a/myapp/files/9_MethodComparePercent/Scenario 345.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 345.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1848</v>
+        <v>7620</v>
       </c>
       <c r="F2" t="n">
-        <v>1.92101788999886</v>
+        <v>1.4490300816363</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.81818181818182</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1685</v>
+        <v>7646</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75157745922515</v>
+        <v>1.45397427876524</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.63636363636364</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12451</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.36769994047947</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.81818181818182</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>13835</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.63088335688166</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.81818181818182</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>14487</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.7548686079613</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.45454545454545</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6318</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.20143990233309</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2268</v>
+        <v>13893</v>
       </c>
       <c r="F8" t="n">
-        <v>2.3576128649986</v>
+        <v>2.64191271970776</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>4.05405405405405</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>3.63636363636364</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>5975</v>
+        <v>34811</v>
       </c>
       <c r="F9" t="n">
-        <v>6.21108327529392</v>
+        <v>6.61970947137025</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
-        <v>5.45454545454545</v>
+        <v>5.81818181818182</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>4817</v>
+        <v>27655</v>
       </c>
       <c r="F10" t="n">
-        <v>5.00732855850892</v>
+        <v>5.25891429234277</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>5.45454545454545</v>
+        <v>4.72727272727273</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>4536</v>
+        <v>20161</v>
       </c>
       <c r="F11" t="n">
-        <v>4.71522572999719</v>
+        <v>3.83384455063904</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.63636363636364</v>
+        <v>2.54545454545455</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>4949</v>
+        <v>10577</v>
       </c>
       <c r="F12" t="n">
-        <v>5.14454412208027</v>
+        <v>2.01133742433952</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.63636363636364</v>
+        <v>1.81818181818182</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6579</v>
+        <v>25472</v>
       </c>
       <c r="F13" t="n">
-        <v>6.83894842981736</v>
+        <v>4.84379189493961</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>5.45454545454545</v>
+        <v>6.18181818181818</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>13633</v>
+        <v>61327</v>
       </c>
       <c r="F14" t="n">
-        <v>14.1716649861225</v>
+        <v>11.6620298971797</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
@@ -1049,16 +1049,16 @@
         <v>14.8648648648649</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>10.9090909090909</v>
+        <v>10.5454545454545</v>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>16.2162162162162</v>
+        <v>14.8648648648649</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>5999</v>
+        <v>35107</v>
       </c>
       <c r="F15" t="n">
-        <v>6.23603155957962</v>
+        <v>6.67599725406898</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -1087,10 +1087,10 @@
         <v>6.75675675675676</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>5.45454545454545</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>1763</v>
+        <v>14239</v>
       </c>
       <c r="F16" t="n">
-        <v>1.83265938315367</v>
+        <v>2.70770857380831</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.05405405405405</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>1.81818181818182</v>
+        <v>4.36363636363636</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>280</v>
+        <v>5307</v>
       </c>
       <c r="F17" t="n">
-        <v>0.291063316666493</v>
+        <v>1.00918669858843</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>1.81818181818182</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>3375</v>
+        <v>30623</v>
       </c>
       <c r="F18" t="n">
-        <v>3.50835247767648</v>
+        <v>5.82331341075439</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
-        <v>3.63636363636364</v>
+        <v>4.72727272727273</v>
       </c>
       <c r="K18" t="n">
         <v>5</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>5207</v>
+        <v>49963</v>
       </c>
       <c r="F19" t="n">
-        <v>5.41273817815154</v>
+        <v>9.50103542897566</v>
       </c>
       <c r="G19" t="n">
         <v>21</v>
@@ -1239,10 +1239,10 @@
         <v>28.3783783783784</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>9.09090909090909</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
         <v>9</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>5711</v>
+        <v>51399</v>
       </c>
       <c r="F20" t="n">
-        <v>5.93665214815123</v>
+        <v>9.77410723963573</v>
       </c>
       <c r="G20" t="n">
         <v>18</v>
@@ -1277,16 +1277,16 @@
         <v>24.3243243243243</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
         <v>9.09090909090909</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>10.8108108108108</v>
+        <v>12.1621621621622</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1771</v>
+        <v>15892</v>
       </c>
       <c r="F21" t="n">
-        <v>1.84097547791557</v>
+        <v>3.02204541435224</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,16 +1315,16 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I21" t="n">
+        <v>13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.72727272727273</v>
+      </c>
+      <c r="K21" t="n">
         <v>2</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.63636363636364</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3</v>
-      </c>
       <c r="L21" t="n">
-        <v>4.05405405405405</v>
+        <v>2.7027027027027</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>4946</v>
+        <v>6941</v>
       </c>
       <c r="F22" t="n">
-        <v>5.14142558654456</v>
+        <v>1.31991047199968</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.63636363636364</v>
+        <v>1.81818181818182</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2511</v>
+        <v>9624</v>
       </c>
       <c r="F23" t="n">
-        <v>2.6102142433913</v>
+        <v>1.83011358342097</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>1.81818181818182</v>
+        <v>2.54545454545455</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>4131</v>
+        <v>15665</v>
       </c>
       <c r="F24" t="n">
-        <v>4.29422343267602</v>
+        <v>2.97887877018801</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -1429,7 +1429,7 @@
         <v>6.75675675675676</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
         <v>3.63636363636364</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>7032</v>
+        <v>17075</v>
       </c>
       <c r="F25" t="n">
-        <v>7.30984729570993</v>
+        <v>3.24700638371914</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J25" t="n">
-        <v>7.27272727272727</v>
+        <v>5.45454545454546</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>7183</v>
+        <v>17781</v>
       </c>
       <c r="F26" t="n">
-        <v>7.46681358434079</v>
+        <v>3.38126035191274</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>5.45454545454545</v>
+        <v>3.27272727272727</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
